--- a/frontend/public/csv/KRWUSD.xlsx
+++ b/frontend/public/csv/KRWUSD.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\song-e-pay\frontend\public\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808374FA-41D4-4D9C-8013-6A00434D6CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -992,7 +1004,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1318,23 +1330,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>315</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1362,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1356.32</v>
+        <v>0.74</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1379,13 +1391,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1367.52</v>
+        <v>0.73</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1396,13 +1408,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1413,13 +1425,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1430,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1366.5</v>
+        <v>0.73</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1447,13 +1459,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1378.71</v>
+        <v>0.73</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1464,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1381.25</v>
+        <v>0.72</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1481,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1384.3</v>
+        <v>0.72</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1498,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1384.3</v>
+        <v>0.72</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1515,13 +1527,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1384.3</v>
+        <v>0.72</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1532,13 +1544,13 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1384.3</v>
+        <v>0.72</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1549,13 +1561,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1389.39</v>
+        <v>0.72</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1566,13 +1578,13 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1385.83</v>
+        <v>0.72</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1583,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1379.73</v>
+        <v>0.72</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1600,13 +1612,13 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1381.76</v>
+        <v>0.72</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1617,13 +1629,13 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1381.76</v>
+        <v>0.72</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1634,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1381.76</v>
+        <v>0.72</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1651,13 +1663,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1376.67</v>
+        <v>0.73</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1668,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1368.53</v>
+        <v>0.73</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1685,13 +1697,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1372.6</v>
+        <v>0.73</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1702,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1379.73</v>
+        <v>0.72</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1719,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1379.73</v>
+        <v>0.72</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1736,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1383.8</v>
+        <v>0.72</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1753,13 +1765,13 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1382.78</v>
+        <v>0.72</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1770,13 +1782,13 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1379.73</v>
+        <v>0.72</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1787,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1386.85</v>
+        <v>0.72</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1804,13 +1816,13 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1380.74</v>
+        <v>0.72</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1821,13 +1833,13 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1380.74</v>
+        <v>0.72</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1838,13 +1850,13 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1380.74</v>
+        <v>0.72</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1855,13 +1867,13 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1370.57</v>
+        <v>0.73</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1872,13 +1884,13 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1378.71</v>
+        <v>0.73</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1889,13 +1901,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1385.83</v>
+        <v>0.72</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1906,13 +1918,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1383.8</v>
+        <v>0.72</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1923,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1383.8</v>
+        <v>0.72</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1940,13 +1952,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1379.73</v>
+        <v>0.72</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1957,13 +1969,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1377.69</v>
+        <v>0.73</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1974,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1386.85</v>
+        <v>0.72</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1991,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>1366.5</v>
+        <v>0.73</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2008,13 +2020,13 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1349.2</v>
+        <v>0.74</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2025,13 +2037,13 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1349.2</v>
+        <v>0.74</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2042,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1324.78</v>
+        <v>0.75</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2059,13 +2071,13 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1338.01</v>
+        <v>0.75</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2076,13 +2088,13 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>1341.06</v>
+        <v>0.75</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2093,13 +2105,13 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1340.04</v>
+        <v>0.75</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2110,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1348.18</v>
+        <v>0.74</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2127,13 +2139,13 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1348.18</v>
+        <v>0.74</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2144,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1350.22</v>
+        <v>0.74</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2161,13 +2173,13 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1356.32</v>
+        <v>0.74</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2178,13 +2190,13 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1328.85</v>
+        <v>0.75</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2195,13 +2207,13 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1322.75</v>
+        <v>0.76</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2212,13 +2224,13 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1322.75</v>
+        <v>0.76</v>
       </c>
       <c r="E52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2229,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1322.75</v>
+        <v>0.76</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2246,13 +2258,13 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>1318.68</v>
+        <v>0.76</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2263,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1319.69</v>
+        <v>0.76</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2280,13 +2292,13 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>1329.87</v>
+        <v>0.75</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2297,13 +2309,13 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1325.8</v>
+        <v>0.75</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2314,13 +2326,13 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1334.96</v>
+        <v>0.75</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2331,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>1334.96</v>
+        <v>0.75</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2348,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1330.89</v>
+        <v>0.75</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2365,13 +2377,13 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1322.75</v>
+        <v>0.76</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2382,13 +2394,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1316.64</v>
+        <v>0.76</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2399,13 +2411,13 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>1322.75</v>
+        <v>0.76</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2416,13 +2428,13 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>1332.92</v>
+        <v>0.75</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2433,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1332.92</v>
+        <v>0.75</v>
       </c>
       <c r="E65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2450,13 +2462,13 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>1331.9</v>
+        <v>0.75</v>
       </c>
       <c r="E66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2467,13 +2479,13 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>1340.04</v>
+        <v>0.75</v>
       </c>
       <c r="E67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2484,13 +2496,13 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1342.08</v>
+        <v>0.75</v>
       </c>
       <c r="E68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2501,13 +2513,13 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>1348.18</v>
+        <v>0.74</v>
       </c>
       <c r="E69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2518,13 +2530,13 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1335.97</v>
+        <v>0.75</v>
       </c>
       <c r="E70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2535,13 +2547,13 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1335.97</v>
+        <v>0.75</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2552,13 +2564,13 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1346.15</v>
+        <v>0.74</v>
       </c>
       <c r="E72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2569,13 +2581,13 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1341.06</v>
+        <v>0.75</v>
       </c>
       <c r="E73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2586,13 +2598,13 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1347.17</v>
+        <v>0.74</v>
       </c>
       <c r="E74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2603,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>1323.76</v>
+        <v>0.76</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2620,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1323.76</v>
+        <v>0.76</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2637,13 +2649,13 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>1323.76</v>
+        <v>0.76</v>
       </c>
       <c r="E77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2654,13 +2666,13 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>1325.8</v>
+        <v>0.75</v>
       </c>
       <c r="E78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2671,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>1335.97</v>
+        <v>0.75</v>
       </c>
       <c r="E79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2688,13 +2700,13 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>1327.83</v>
+        <v>0.75</v>
       </c>
       <c r="E80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2705,13 +2717,13 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>1331.9</v>
+        <v>0.75</v>
       </c>
       <c r="E81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2722,13 +2734,13 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1328.85</v>
+        <v>0.75</v>
       </c>
       <c r="E82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2739,13 +2751,13 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>1328.85</v>
+        <v>0.75</v>
       </c>
       <c r="E83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2756,13 +2768,13 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>1328.85</v>
+        <v>0.75</v>
       </c>
       <c r="E84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2773,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>1324.78</v>
+        <v>0.75</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2790,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1322.75</v>
+        <v>0.76</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2807,13 +2819,13 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>1312.57</v>
+        <v>0.76</v>
       </c>
       <c r="E87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2824,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>1327.83</v>
+        <v>0.75</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2841,13 +2853,13 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>1327.83</v>
+        <v>0.75</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2858,13 +2870,13 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>1327.83</v>
+        <v>0.75</v>
       </c>
       <c r="E90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2875,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1338.01</v>
+        <v>0.75</v>
       </c>
       <c r="E91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2892,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>1335.97</v>
+        <v>0.75</v>
       </c>
       <c r="E92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2909,13 +2921,13 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>1340.04</v>
+        <v>0.75</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2926,13 +2938,13 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1348.18</v>
+        <v>0.74</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2943,13 +2955,13 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>1348.18</v>
+        <v>0.74</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2960,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1348.18</v>
+        <v>0.74</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2977,13 +2989,13 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>1346.15</v>
+        <v>0.74</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2994,13 +3006,13 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>1348.18</v>
+        <v>0.74</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3011,13 +3023,13 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1345.13</v>
+        <v>0.74</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3028,13 +3040,13 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1341.06</v>
+        <v>0.75</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3045,13 +3057,13 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1341.06</v>
+        <v>0.75</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3062,13 +3074,13 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1349.2</v>
+        <v>0.74</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3079,13 +3091,13 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3096,13 +3108,13 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1373.62</v>
+        <v>0.73</v>
       </c>
       <c r="E104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3113,13 +3125,13 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1366.5</v>
+        <v>0.73</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3130,13 +3142,13 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1365.48</v>
+        <v>0.73</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3147,13 +3159,13 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1365.48</v>
+        <v>0.73</v>
       </c>
       <c r="E107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3164,13 +3176,13 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1367.52</v>
+        <v>0.73</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3181,13 +3193,13 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3198,13 +3210,13 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3215,13 +3227,13 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>1366.5</v>
+        <v>0.73</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3232,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1365.48</v>
+        <v>0.73</v>
       </c>
       <c r="E112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3249,13 +3261,13 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1365.48</v>
+        <v>0.73</v>
       </c>
       <c r="E113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3266,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>1364.46</v>
+        <v>0.73</v>
       </c>
       <c r="E114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3283,13 +3295,13 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>1358.36</v>
+        <v>0.74</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3300,13 +3312,13 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>1362.43</v>
+        <v>0.73</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3317,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1362.43</v>
+        <v>0.73</v>
       </c>
       <c r="E117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3334,13 +3346,13 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>1352.25</v>
+        <v>0.74</v>
       </c>
       <c r="E118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3351,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1366.5</v>
+        <v>0.73</v>
       </c>
       <c r="E119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3368,13 +3380,13 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1361.41</v>
+        <v>0.73</v>
       </c>
       <c r="E120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3385,13 +3397,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1356.32</v>
+        <v>0.74</v>
       </c>
       <c r="E121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3402,13 +3414,13 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>1356.32</v>
+        <v>0.74</v>
       </c>
       <c r="E122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3419,13 +3431,13 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1358.36</v>
+        <v>0.74</v>
       </c>
       <c r="E123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3436,13 +3448,13 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>1360.39</v>
+        <v>0.74</v>
       </c>
       <c r="E124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3453,13 +3465,13 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1360.39</v>
+        <v>0.74</v>
       </c>
       <c r="E125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3470,13 +3482,13 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>1360.39</v>
+        <v>0.74</v>
       </c>
       <c r="E126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3487,13 +3499,13 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>1368.53</v>
+        <v>0.73</v>
       </c>
       <c r="E127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3504,13 +3516,13 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3521,13 +3533,13 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1361.41</v>
+        <v>0.73</v>
       </c>
       <c r="E129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3538,13 +3550,13 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>1365.48</v>
+        <v>0.73</v>
       </c>
       <c r="E130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3555,13 +3567,13 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>1365.48</v>
+        <v>0.73</v>
       </c>
       <c r="E131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3572,13 +3584,13 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3589,13 +3601,13 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>1365.48</v>
+        <v>0.73</v>
       </c>
       <c r="E133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3606,13 +3618,13 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3623,13 +3635,13 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1356.32</v>
+        <v>0.74</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3640,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>1361.41</v>
+        <v>0.73</v>
       </c>
       <c r="E136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3657,13 +3669,13 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1361.41</v>
+        <v>0.73</v>
       </c>
       <c r="E137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3674,13 +3686,13 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1359.38</v>
+        <v>0.74</v>
       </c>
       <c r="E138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3691,13 +3703,13 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1359.38</v>
+        <v>0.74</v>
       </c>
       <c r="E139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3708,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3725,13 +3737,13 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1364.46</v>
+        <v>0.73</v>
       </c>
       <c r="E141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3742,13 +3754,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1364.46</v>
+        <v>0.73</v>
       </c>
       <c r="E142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3759,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1364.46</v>
+        <v>0.73</v>
       </c>
       <c r="E143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3776,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1360.39</v>
+        <v>0.74</v>
       </c>
       <c r="E144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3793,13 +3805,13 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1364.46</v>
+        <v>0.73</v>
       </c>
       <c r="E145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3810,13 +3822,13 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3827,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1358.36</v>
+        <v>0.74</v>
       </c>
       <c r="E147" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3844,13 +3856,13 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1347.17</v>
+        <v>0.74</v>
       </c>
       <c r="E148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3861,13 +3873,13 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1347.17</v>
+        <v>0.74</v>
       </c>
       <c r="E149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3878,13 +3890,13 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1338.01</v>
+        <v>0.75</v>
       </c>
       <c r="E150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3895,13 +3907,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1338.01</v>
+        <v>0.75</v>
       </c>
       <c r="E151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3912,13 +3924,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1347.17</v>
+        <v>0.74</v>
       </c>
       <c r="E152" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3929,13 +3941,13 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1346.15</v>
+        <v>0.74</v>
       </c>
       <c r="E153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3946,13 +3958,13 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1360.39</v>
+        <v>0.74</v>
       </c>
       <c r="E154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3963,13 +3975,13 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1360.39</v>
+        <v>0.74</v>
       </c>
       <c r="E155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3980,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1362.43</v>
+        <v>0.73</v>
       </c>
       <c r="E156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3997,13 +4009,13 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1367.52</v>
+        <v>0.73</v>
       </c>
       <c r="E157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4014,13 +4026,13 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>1369.55</v>
+        <v>0.73</v>
       </c>
       <c r="E158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4031,13 +4043,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1359.38</v>
+        <v>0.74</v>
       </c>
       <c r="E159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4048,13 +4060,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1372.6</v>
+        <v>0.73</v>
       </c>
       <c r="E160" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4065,13 +4077,13 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1372.6</v>
+        <v>0.73</v>
       </c>
       <c r="E161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4082,13 +4094,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1370.57</v>
+        <v>0.73</v>
       </c>
       <c r="E162" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4099,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1369.55</v>
+        <v>0.73</v>
       </c>
       <c r="E163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4116,13 +4128,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1379.73</v>
+        <v>0.72</v>
       </c>
       <c r="E164" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4133,13 +4145,13 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1380.74</v>
+        <v>0.72</v>
       </c>
       <c r="E165" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4150,13 +4162,13 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1375.66</v>
+        <v>0.73</v>
       </c>
       <c r="E166" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4167,13 +4179,13 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1375.66</v>
+        <v>0.73</v>
       </c>
       <c r="E167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4184,13 +4196,13 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1377.69</v>
+        <v>0.73</v>
       </c>
       <c r="E168" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4201,13 +4213,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1380.74</v>
+        <v>0.72</v>
       </c>
       <c r="E169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4218,13 +4230,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1377.69</v>
+        <v>0.73</v>
       </c>
       <c r="E170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4235,13 +4247,13 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1375.66</v>
+        <v>0.73</v>
       </c>
       <c r="E171" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4252,13 +4264,13 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>1383.8</v>
+        <v>0.72</v>
       </c>
       <c r="E172" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4269,13 +4281,13 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1383.8</v>
+        <v>0.72</v>
       </c>
       <c r="E173" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4286,13 +4298,13 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1383.8</v>
+        <v>0.72</v>
       </c>
       <c r="E174" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4303,13 +4315,13 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1383.8</v>
+        <v>0.72</v>
       </c>
       <c r="E175" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4320,13 +4332,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1383.8</v>
+        <v>0.72</v>
       </c>
       <c r="E176" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4337,13 +4349,13 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1398.04</v>
+        <v>0.72</v>
       </c>
       <c r="E177" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4354,13 +4366,13 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1409.23</v>
+        <v>0.71</v>
       </c>
       <c r="E178" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4371,13 +4383,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1409.23</v>
+        <v>0.71</v>
       </c>
       <c r="E179" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4388,13 +4400,13 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1413.3</v>
+        <v>0.71</v>
       </c>
       <c r="E180" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4405,13 +4417,13 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1422.46</v>
+        <v>0.7</v>
       </c>
       <c r="E181" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4422,13 +4434,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>1413.3</v>
+        <v>0.71</v>
       </c>
       <c r="E182" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4439,13 +4451,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1402.11</v>
+        <v>0.71</v>
       </c>
       <c r="E183" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4456,13 +4468,13 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1409.23</v>
+        <v>0.71</v>
       </c>
       <c r="E184" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4473,13 +4485,13 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1409.23</v>
+        <v>0.71</v>
       </c>
       <c r="E185" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4490,13 +4502,13 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1408.22</v>
+        <v>0.71</v>
       </c>
       <c r="E186" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4507,13 +4519,13 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1407.2</v>
+        <v>0.71</v>
       </c>
       <c r="E187" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4524,13 +4536,13 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1402.11</v>
+        <v>0.71</v>
       </c>
       <c r="E188" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4541,13 +4553,13 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1401.09</v>
+        <v>0.71</v>
       </c>
       <c r="E189" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4558,13 +4570,13 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1404.15</v>
+        <v>0.71</v>
       </c>
       <c r="E190" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4575,13 +4587,13 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1404.15</v>
+        <v>0.71</v>
       </c>
       <c r="E191" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4592,13 +4604,13 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1406.18</v>
+        <v>0.71</v>
       </c>
       <c r="E192" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4609,13 +4621,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1411.27</v>
+        <v>0.71</v>
       </c>
       <c r="E193" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4626,13 +4638,13 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1411.27</v>
+        <v>0.71</v>
       </c>
       <c r="E194" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4643,13 +4655,13 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1405.16</v>
+        <v>0.71</v>
       </c>
       <c r="E195" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4660,13 +4672,13 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>1389.9</v>
+        <v>0.72</v>
       </c>
       <c r="E196" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4677,13 +4689,13 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>1389.9</v>
+        <v>0.72</v>
       </c>
       <c r="E197" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4694,13 +4706,13 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1389.9</v>
+        <v>0.72</v>
       </c>
       <c r="E198" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4711,13 +4723,13 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1387.87</v>
+        <v>0.72</v>
       </c>
       <c r="E199" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4728,13 +4740,13 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1392.95</v>
+        <v>0.72</v>
       </c>
       <c r="E200" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4745,13 +4757,13 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>1399.06</v>
+        <v>0.71</v>
       </c>
       <c r="E201" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4762,13 +4774,13 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1394.99</v>
+        <v>0.72</v>
       </c>
       <c r="E202" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4779,13 +4791,13 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1399.06</v>
+        <v>0.71</v>
       </c>
       <c r="E203" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4796,13 +4808,13 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1397.02</v>
+        <v>0.72</v>
       </c>
       <c r="E204" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4813,13 +4825,13 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1397.02</v>
+        <v>0.72</v>
       </c>
       <c r="E205" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4830,13 +4842,13 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1397.02</v>
+        <v>0.72</v>
       </c>
       <c r="E206" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4847,13 +4859,13 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1373.62</v>
+        <v>0.73</v>
       </c>
       <c r="E207" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4864,13 +4876,13 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1386.85</v>
+        <v>0.72</v>
       </c>
       <c r="E208" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4881,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>1386.85</v>
+        <v>0.72</v>
       </c>
       <c r="E209" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4898,13 +4910,13 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>1386.85</v>
+        <v>0.72</v>
       </c>
       <c r="E210" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -4915,13 +4927,13 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1390.92</v>
+        <v>0.72</v>
       </c>
       <c r="E211" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4932,13 +4944,13 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1392.95</v>
+        <v>0.72</v>
       </c>
       <c r="E212" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4949,13 +4961,13 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1392.95</v>
+        <v>0.72</v>
       </c>
       <c r="E213" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4966,13 +4978,13 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1397.02</v>
+        <v>0.72</v>
       </c>
       <c r="E214" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4983,13 +4995,13 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>1397.02</v>
+        <v>0.72</v>
       </c>
       <c r="E215" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5000,13 +5012,13 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1388.27</v>
+        <v>0.72</v>
       </c>
       <c r="E216" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5017,13 +5029,13 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1387.87</v>
+        <v>0.72</v>
       </c>
       <c r="E217" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5034,13 +5046,13 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1394.99</v>
+        <v>0.72</v>
       </c>
       <c r="E218" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5051,13 +5063,13 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1407.2</v>
+        <v>0.71</v>
       </c>
       <c r="E219" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5068,13 +5080,13 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1414.32</v>
+        <v>0.71</v>
       </c>
       <c r="E220" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5085,13 +5097,13 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1414.32</v>
+        <v>0.71</v>
       </c>
       <c r="E221" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5102,13 +5114,13 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1407.2</v>
+        <v>0.71</v>
       </c>
       <c r="E222" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5119,13 +5131,13 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1406.18</v>
+        <v>0.71</v>
       </c>
       <c r="E223" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5136,13 +5148,13 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1402.11</v>
+        <v>0.71</v>
       </c>
       <c r="E224" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5153,13 +5165,13 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1402.11</v>
+        <v>0.71</v>
       </c>
       <c r="E225" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5170,13 +5182,13 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1407.2</v>
+        <v>0.71</v>
       </c>
       <c r="E226" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5187,13 +5199,13 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1407.2</v>
+        <v>0.71</v>
       </c>
       <c r="E227" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5204,13 +5216,13 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>1405.16</v>
+        <v>0.71</v>
       </c>
       <c r="E228" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5221,13 +5233,13 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1408.22</v>
+        <v>0.71</v>
       </c>
       <c r="E229" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5238,13 +5250,13 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1404.15</v>
+        <v>0.71</v>
       </c>
       <c r="E230" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5255,13 +5267,13 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1402.11</v>
+        <v>0.71</v>
       </c>
       <c r="E231" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5272,13 +5284,13 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1414.32</v>
+        <v>0.71</v>
       </c>
       <c r="E232" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5289,13 +5301,13 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>1414.32</v>
+        <v>0.71</v>
       </c>
       <c r="E233" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5306,13 +5318,13 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1408.22</v>
+        <v>0.71</v>
       </c>
       <c r="E234" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5323,13 +5335,13 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1413.3</v>
+        <v>0.71</v>
       </c>
       <c r="E235" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5340,13 +5352,13 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1408.22</v>
+        <v>0.71</v>
       </c>
       <c r="E236" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5357,13 +5369,13 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1415.34</v>
+        <v>0.71</v>
       </c>
       <c r="E237" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5374,13 +5386,13 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1418.39</v>
+        <v>0.71</v>
       </c>
       <c r="E238" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5391,13 +5403,13 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1418.39</v>
+        <v>0.71</v>
       </c>
       <c r="E239" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5408,13 +5420,13 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1416.36</v>
+        <v>0.71</v>
       </c>
       <c r="E240" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5425,13 +5437,13 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1418.39</v>
+        <v>0.71</v>
       </c>
       <c r="E241" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5442,13 +5454,13 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1418.39</v>
+        <v>0.71</v>
       </c>
       <c r="E242" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5459,13 +5471,13 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1414.32</v>
+        <v>0.71</v>
       </c>
       <c r="E243" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5476,13 +5488,13 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1407.2</v>
+        <v>0.71</v>
       </c>
       <c r="E244" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5493,13 +5505,13 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1407.2</v>
+        <v>0.71</v>
       </c>
       <c r="E245" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5510,13 +5522,13 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1410.25</v>
+        <v>0.71</v>
       </c>
       <c r="E246" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5527,13 +5539,13 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1417.37</v>
+        <v>0.71</v>
       </c>
       <c r="E247" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5544,13 +5556,13 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1418.39</v>
+        <v>0.71</v>
       </c>
       <c r="E248" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5561,13 +5573,13 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1409.23</v>
+        <v>0.71</v>
       </c>
       <c r="E249" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5578,13 +5590,13 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1409.23</v>
+        <v>0.71</v>
       </c>
       <c r="E250" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5595,13 +5607,13 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>1409.23</v>
+        <v>0.71</v>
       </c>
       <c r="E251" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5612,13 +5624,13 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>1412.29</v>
+        <v>0.71</v>
       </c>
       <c r="E252" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5629,13 +5641,13 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1412.29</v>
+        <v>0.71</v>
       </c>
       <c r="E253" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5646,13 +5658,13 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>1413.3</v>
+        <v>0.71</v>
       </c>
       <c r="E254" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5663,13 +5675,13 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1408.22</v>
+        <v>0.71</v>
       </c>
       <c r="E255" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5680,13 +5692,13 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1405.16</v>
+        <v>0.71</v>
       </c>
       <c r="E256" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
@@ -5697,13 +5709,13 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>1405.16</v>
+        <v>0.71</v>
       </c>
       <c r="E257" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>257</v>
       </c>
@@ -5714,13 +5726,13 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>1410.25</v>
+        <v>0.71</v>
       </c>
       <c r="E258" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5731,13 +5743,13 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1412.29</v>
+        <v>0.71</v>
       </c>
       <c r="E259" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5748,13 +5760,13 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>1406.18</v>
+        <v>0.71</v>
       </c>
       <c r="E260" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>260</v>
       </c>
@@ -5765,13 +5777,13 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1411.27</v>
+        <v>0.71</v>
       </c>
       <c r="E261" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>261</v>
       </c>
@@ -5782,13 +5794,13 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1417.37</v>
+        <v>0.71</v>
       </c>
       <c r="E262" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>262</v>
       </c>
@@ -5799,13 +5811,13 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1417.37</v>
+        <v>0.71</v>
       </c>
       <c r="E263" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>263</v>
       </c>
@@ -5816,13 +5828,13 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1417.37</v>
+        <v>0.71</v>
       </c>
       <c r="E264" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>264</v>
       </c>
@@ -5833,13 +5845,13 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>1415.34</v>
+        <v>0.71</v>
       </c>
       <c r="E265" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>265</v>
       </c>
@@ -5850,13 +5862,13 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>1413.3</v>
+        <v>0.71</v>
       </c>
       <c r="E266" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>266</v>
       </c>
@@ -5867,13 +5879,13 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>1411.27</v>
+        <v>0.71</v>
       </c>
       <c r="E267" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>267</v>
       </c>
@@ -5884,13 +5896,13 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>1414.32</v>
+        <v>0.71</v>
       </c>
       <c r="E268" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>268</v>
       </c>
@@ -5901,13 +5913,13 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>1414.32</v>
+        <v>0.71</v>
       </c>
       <c r="E269" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>269</v>
       </c>
@@ -5918,13 +5930,13 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1412.29</v>
+        <v>0.71</v>
       </c>
       <c r="E270" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>270</v>
       </c>
@@ -5935,13 +5947,13 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>1413.3</v>
+        <v>0.71</v>
       </c>
       <c r="E271" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>271</v>
       </c>
@@ -5952,13 +5964,13 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>1404.15</v>
+        <v>0.71</v>
       </c>
       <c r="E272" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>272</v>
       </c>
@@ -5969,13 +5981,13 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>1394.99</v>
+        <v>0.72</v>
       </c>
       <c r="E273" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>273</v>
       </c>
@@ -5986,13 +5998,13 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>1397.02</v>
+        <v>0.72</v>
       </c>
       <c r="E274" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6003,13 +6015,13 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>1397.02</v>
+        <v>0.72</v>
       </c>
       <c r="E275" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6020,13 +6032,13 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>1391.94</v>
+        <v>0.72</v>
       </c>
       <c r="E276" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6037,13 +6049,13 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>1408.22</v>
+        <v>0.71</v>
       </c>
       <c r="E277" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6054,13 +6066,13 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>1404.15</v>
+        <v>0.71</v>
       </c>
       <c r="E278" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6071,13 +6083,13 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>1404.15</v>
+        <v>0.71</v>
       </c>
       <c r="E279" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6088,13 +6100,13 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>1394.99</v>
+        <v>0.72</v>
       </c>
       <c r="E280" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6105,13 +6117,13 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>1394.99</v>
+        <v>0.72</v>
       </c>
       <c r="E281" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6122,13 +6134,13 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>1400.08</v>
+        <v>0.71</v>
       </c>
       <c r="E282" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6139,13 +6151,13 @@
         <v>1</v>
       </c>
       <c r="D283">
-        <v>1400.08</v>
+        <v>0.71</v>
       </c>
       <c r="E283" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6156,13 +6168,13 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>1384.81</v>
+        <v>0.72</v>
       </c>
       <c r="E284" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6173,13 +6185,13 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>1384.81</v>
+        <v>0.72</v>
       </c>
       <c r="E285" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6190,13 +6202,13 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>1384.81</v>
+        <v>0.72</v>
       </c>
       <c r="E286" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6207,13 +6219,13 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>1384.81</v>
+        <v>0.72</v>
       </c>
       <c r="E287" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6224,13 +6236,13 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>1365.48</v>
+        <v>0.73</v>
       </c>
       <c r="E288" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6241,13 +6253,13 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>1360.39</v>
+        <v>0.74</v>
       </c>
       <c r="E289" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6258,13 +6270,13 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>1367.52</v>
+        <v>0.73</v>
       </c>
       <c r="E290" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6275,13 +6287,13 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>1365.48</v>
+        <v>0.73</v>
       </c>
       <c r="E291" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6292,13 +6304,13 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>1366.5</v>
+        <v>0.73</v>
       </c>
       <c r="E292" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6309,13 +6321,13 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>1366.5</v>
+        <v>0.73</v>
       </c>
       <c r="E293" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6326,13 +6338,13 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>1353.27</v>
+        <v>0.74</v>
       </c>
       <c r="E294" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6343,13 +6355,13 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>1360.39</v>
+        <v>0.74</v>
       </c>
       <c r="E295" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6360,13 +6372,13 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>1362.43</v>
+        <v>0.73</v>
       </c>
       <c r="E296" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6377,13 +6389,13 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>1362.43</v>
+        <v>0.73</v>
       </c>
       <c r="E297" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6394,13 +6406,13 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>1362.43</v>
+        <v>0.73</v>
       </c>
       <c r="E298" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6411,13 +6423,13 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>1362.43</v>
+        <v>0.73</v>
       </c>
       <c r="E299" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6428,13 +6440,13 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>1366.5</v>
+        <v>0.73</v>
       </c>
       <c r="E300" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6445,13 +6457,13 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>1369.55</v>
+        <v>0.73</v>
       </c>
       <c r="E301" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6462,13 +6474,13 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>1370.57</v>
+        <v>0.73</v>
       </c>
       <c r="E302" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6479,13 +6491,13 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>1363.45</v>
+        <v>0.73</v>
       </c>
       <c r="E303" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6496,13 +6508,13 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>1361.41</v>
+        <v>0.73</v>
       </c>
       <c r="E304" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6513,13 +6525,13 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>1361.41</v>
+        <v>0.73</v>
       </c>
       <c r="E305" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6530,13 +6542,13 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>1374.64</v>
+        <v>0.73</v>
       </c>
       <c r="E306" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6547,13 +6559,13 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>1372.6</v>
+        <v>0.73</v>
       </c>
       <c r="E307" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6564,13 +6576,13 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>1369.55</v>
+        <v>0.73</v>
       </c>
       <c r="E308" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6581,13 +6593,13 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>1369.55</v>
+        <v>0.73</v>
       </c>
       <c r="E309" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>309</v>
       </c>
@@ -6598,13 +6610,13 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>1359.38</v>
+        <v>0.74</v>
       </c>
       <c r="E310" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>310</v>
       </c>
@@ -6615,13 +6627,13 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>1359.38</v>
+        <v>0.74</v>
       </c>
       <c r="E311" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>311</v>
       </c>
@@ -6632,13 +6644,13 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>1359.38</v>
+        <v>0.74</v>
       </c>
       <c r="E312" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>312</v>
       </c>
@@ -6649,13 +6661,13 @@
         <v>1</v>
       </c>
       <c r="D313">
-        <v>1359.38</v>
+        <v>0.74</v>
       </c>
       <c r="E313" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>313</v>
       </c>
@@ -6666,13 +6678,13 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>1359.38</v>
+        <v>0.74</v>
       </c>
       <c r="E314" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>314</v>
       </c>
@@ -6683,13 +6695,13 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>1356.32</v>
+        <v>0.74</v>
       </c>
       <c r="E315" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>315</v>
       </c>
@@ -6700,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="D316">
-        <v>1354.03</v>
+        <v>0.74</v>
       </c>
       <c r="E316" t="s">
         <v>314</v>

--- a/frontend/public/csv/KRWUSD.xlsx
+++ b/frontend/public/csv/KRWUSD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\song-e-pay\frontend\public\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_LBY\song-e-pay\frontend\public\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808374FA-41D4-4D9C-8013-6A00434D6CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1E9860-F7F4-4B0B-8655-0E0B7067DE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:E316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -1935,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E52" t="s">
         <v>50</v>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E65" t="s">
         <v>63</v>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E66" t="s">
         <v>64</v>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E67" t="s">
         <v>65</v>
@@ -2496,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E68" t="s">
         <v>66</v>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E69" t="s">
         <v>67</v>
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E70" t="s">
         <v>68</v>
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E72" t="s">
         <v>70</v>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E73" t="s">
         <v>71</v>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E74" t="s">
         <v>72</v>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
@@ -2632,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E77" t="s">
         <v>75</v>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E78" t="s">
         <v>76</v>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E79" t="s">
         <v>77</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E80" t="s">
         <v>78</v>
@@ -2717,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E81" t="s">
         <v>79</v>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E82" t="s">
         <v>80</v>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E83" t="s">
         <v>81</v>
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E84" t="s">
         <v>82</v>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.76</v>
+        <v>7.6000000000000004E-4</v>
       </c>
       <c r="E87" t="s">
         <v>85</v>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E90" t="s">
         <v>88</v>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E91" t="s">
         <v>89</v>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E92" t="s">
         <v>90</v>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E104" t="s">
         <v>102</v>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E107" t="s">
         <v>105</v>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E112" t="s">
         <v>110</v>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E113" t="s">
         <v>111</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E114" t="s">
         <v>112</v>
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E117" t="s">
         <v>115</v>
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E118" t="s">
         <v>116</v>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E119" t="s">
         <v>117</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E120" t="s">
         <v>118</v>
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E121" t="s">
         <v>119</v>
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E122" t="s">
         <v>120</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E123" t="s">
         <v>121</v>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E124" t="s">
         <v>122</v>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E125" t="s">
         <v>123</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E126" t="s">
         <v>124</v>
@@ -3499,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E127" t="s">
         <v>125</v>
@@ -3516,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E128" t="s">
         <v>126</v>
@@ -3533,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E129" t="s">
         <v>127</v>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E130" t="s">
         <v>128</v>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E131" t="s">
         <v>129</v>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E132" t="s">
         <v>130</v>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E133" t="s">
         <v>131</v>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E134" t="s">
         <v>132</v>
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
@@ -3652,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E136" t="s">
         <v>134</v>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E137" t="s">
         <v>135</v>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E138" t="s">
         <v>136</v>
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E139" t="s">
         <v>137</v>
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E140" t="s">
         <v>138</v>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E141" t="s">
         <v>139</v>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E142" t="s">
         <v>140</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E143" t="s">
         <v>141</v>
@@ -3788,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E144" t="s">
         <v>142</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E145" t="s">
         <v>143</v>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E146" t="s">
         <v>144</v>
@@ -3839,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E147" t="s">
         <v>145</v>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E148" t="s">
         <v>146</v>
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E149" t="s">
         <v>147</v>
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E150" t="s">
         <v>148</v>
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>0.75</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="E151" t="s">
         <v>149</v>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E152" t="s">
         <v>150</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E153" t="s">
         <v>151</v>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E154" t="s">
         <v>152</v>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E155" t="s">
         <v>153</v>
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E156" t="s">
         <v>154</v>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E157" t="s">
         <v>155</v>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E158" t="s">
         <v>156</v>
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E159" t="s">
         <v>157</v>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E160" t="s">
         <v>158</v>
@@ -4077,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E161" t="s">
         <v>159</v>
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E162" t="s">
         <v>160</v>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E163" t="s">
         <v>161</v>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E164" t="s">
         <v>162</v>
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E165" t="s">
         <v>163</v>
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E166" t="s">
         <v>164</v>
@@ -4179,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E167" t="s">
         <v>165</v>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E168" t="s">
         <v>166</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E169" t="s">
         <v>167</v>
@@ -4230,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E170" t="s">
         <v>168</v>
@@ -4247,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E171" t="s">
         <v>169</v>
@@ -4264,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E172" t="s">
         <v>170</v>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E173" t="s">
         <v>171</v>
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E174" t="s">
         <v>172</v>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E175" t="s">
         <v>173</v>
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E176" t="s">
         <v>174</v>
@@ -4349,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E177" t="s">
         <v>175</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E178" t="s">
         <v>176</v>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E179" t="s">
         <v>177</v>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E180" t="s">
         <v>178</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>0.7</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E181" t="s">
         <v>179</v>
@@ -4434,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E182" t="s">
         <v>180</v>
@@ -4451,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E183" t="s">
         <v>181</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E184" t="s">
         <v>182</v>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E185" t="s">
         <v>183</v>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E186" t="s">
         <v>184</v>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E187" t="s">
         <v>185</v>
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E188" t="s">
         <v>186</v>
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E189" t="s">
         <v>187</v>
@@ -4570,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E190" t="s">
         <v>188</v>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E191" t="s">
         <v>189</v>
@@ -4604,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E192" t="s">
         <v>190</v>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E193" t="s">
         <v>191</v>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E194" t="s">
         <v>192</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E195" t="s">
         <v>193</v>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E196" t="s">
         <v>194</v>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E197" t="s">
         <v>195</v>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E198" t="s">
         <v>196</v>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E199" t="s">
         <v>197</v>
@@ -4740,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E200" t="s">
         <v>198</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E201" t="s">
         <v>199</v>
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E202" t="s">
         <v>200</v>
@@ -4791,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E203" t="s">
         <v>201</v>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E204" t="s">
         <v>202</v>
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E205" t="s">
         <v>203</v>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E206" t="s">
         <v>204</v>
@@ -4859,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E207" t="s">
         <v>205</v>
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E208" t="s">
         <v>206</v>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E209" t="s">
         <v>207</v>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E210" t="s">
         <v>208</v>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E211" t="s">
         <v>209</v>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E212" t="s">
         <v>210</v>
@@ -4961,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E213" t="s">
         <v>211</v>
@@ -4978,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E214" t="s">
         <v>212</v>
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E215" t="s">
         <v>213</v>
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E216" t="s">
         <v>214</v>
@@ -5029,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E217" t="s">
         <v>215</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E218" t="s">
         <v>216</v>
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E219" t="s">
         <v>217</v>
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E220" t="s">
         <v>218</v>
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E221" t="s">
         <v>219</v>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E222" t="s">
         <v>220</v>
@@ -5131,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E223" t="s">
         <v>221</v>
@@ -5148,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E224" t="s">
         <v>222</v>
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E225" t="s">
         <v>223</v>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E226" t="s">
         <v>224</v>
@@ -5199,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E227" t="s">
         <v>225</v>
@@ -5216,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E228" t="s">
         <v>226</v>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E229" t="s">
         <v>227</v>
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E230" t="s">
         <v>228</v>
@@ -5267,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E231" t="s">
         <v>229</v>
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E232" t="s">
         <v>230</v>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E233" t="s">
         <v>231</v>
@@ -5318,7 +5318,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E234" t="s">
         <v>232</v>
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E235" t="s">
         <v>233</v>
@@ -5352,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E236" t="s">
         <v>234</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E237" t="s">
         <v>235</v>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E238" t="s">
         <v>236</v>
@@ -5403,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E239" t="s">
         <v>237</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E240" t="s">
         <v>238</v>
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E241" t="s">
         <v>239</v>
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E242" t="s">
         <v>240</v>
@@ -5471,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E243" t="s">
         <v>241</v>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E244" t="s">
         <v>242</v>
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E245" t="s">
         <v>243</v>
@@ -5522,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E246" t="s">
         <v>244</v>
@@ -5539,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E247" t="s">
         <v>245</v>
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E248" t="s">
         <v>246</v>
@@ -5573,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E249" t="s">
         <v>247</v>
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E250" t="s">
         <v>248</v>
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E251" t="s">
         <v>249</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E252" t="s">
         <v>250</v>
@@ -5641,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E253" t="s">
         <v>251</v>
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E254" t="s">
         <v>252</v>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E255" t="s">
         <v>253</v>
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E256" t="s">
         <v>254</v>
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E257" t="s">
         <v>255</v>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E258" t="s">
         <v>256</v>
@@ -5743,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E259" t="s">
         <v>257</v>
@@ -5760,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E260" t="s">
         <v>258</v>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E261" t="s">
         <v>259</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E262" t="s">
         <v>260</v>
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E263" t="s">
         <v>261</v>
@@ -5828,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E264" t="s">
         <v>262</v>
@@ -5845,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E265" t="s">
         <v>263</v>
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E266" t="s">
         <v>264</v>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E267" t="s">
         <v>265</v>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E268" t="s">
         <v>266</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E269" t="s">
         <v>267</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E270" t="s">
         <v>268</v>
@@ -5947,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E271" t="s">
         <v>269</v>
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E272" t="s">
         <v>270</v>
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E273" t="s">
         <v>271</v>
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E274" t="s">
         <v>272</v>
@@ -6015,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E275" t="s">
         <v>273</v>
@@ -6032,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E276" t="s">
         <v>274</v>
@@ -6049,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E277" t="s">
         <v>275</v>
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E278" t="s">
         <v>276</v>
@@ -6083,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E279" t="s">
         <v>277</v>
@@ -6100,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E280" t="s">
         <v>278</v>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E281" t="s">
         <v>279</v>
@@ -6134,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E282" t="s">
         <v>280</v>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="D283">
-        <v>0.71</v>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="E283" t="s">
         <v>281</v>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E284" t="s">
         <v>282</v>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E285" t="s">
         <v>283</v>
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E286" t="s">
         <v>284</v>
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>0.72</v>
+        <v>7.1999999999999994E-4</v>
       </c>
       <c r="E287" t="s">
         <v>285</v>
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E288" t="s">
         <v>286</v>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E289" t="s">
         <v>287</v>
@@ -6270,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E290" t="s">
         <v>288</v>
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E291" t="s">
         <v>289</v>
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E292" t="s">
         <v>290</v>
@@ -6321,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E293" t="s">
         <v>291</v>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E294" t="s">
         <v>292</v>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E295" t="s">
         <v>293</v>
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E296" t="s">
         <v>294</v>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E297" t="s">
         <v>295</v>
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E298" t="s">
         <v>296</v>
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E299" t="s">
         <v>297</v>
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E300" t="s">
         <v>298</v>
@@ -6457,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E301" t="s">
         <v>299</v>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E302" t="s">
         <v>300</v>
@@ -6491,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E303" t="s">
         <v>301</v>
@@ -6508,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E304" t="s">
         <v>302</v>
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E305" t="s">
         <v>303</v>
@@ -6542,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E306" t="s">
         <v>304</v>
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E307" t="s">
         <v>305</v>
@@ -6576,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E308" t="s">
         <v>306</v>
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>0.73</v>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="E309" t="s">
         <v>307</v>
@@ -6610,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E310" t="s">
         <v>308</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E311" t="s">
         <v>309</v>
@@ -6644,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E312" t="s">
         <v>310</v>
@@ -6661,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="D313">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E313" t="s">
         <v>311</v>
@@ -6678,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E314" t="s">
         <v>312</v>
@@ -6695,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E315" t="s">
         <v>313</v>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="D316">
-        <v>0.74</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="E316" t="s">
         <v>314</v>
